--- a/Data/EC/NIT-9005925882.xlsx
+++ b/Data/EC/NIT-9005925882.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E933410A-2BAC-4236-B22F-9125C433B5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A0F4C7F-2661-46AC-9B03-EF6F931D4F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{08CE2E72-A22E-4DA8-A466-F6EF1159EE20}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1912CBA5-4FD7-43B8-9271-4CFA570D3C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="84">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,202 +65,196 @@
     <t>CC</t>
   </si>
   <si>
-    <t>45563676</t>
-  </si>
-  <si>
-    <t>ELVIA MARIA CONEO ACOSTA</t>
+    <t>33104960</t>
+  </si>
+  <si>
+    <t>MARIA INMACULADA BENAVIDES REALES</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1047365844</t>
+  </si>
+  <si>
+    <t>DEISY RODRIGUEZ NARVAEZ</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>20165505</t>
+  </si>
+  <si>
+    <t>AURY ESTELA MUÑOZ RIOS</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
   </si>
   <si>
     <t>2209</t>
   </si>
   <si>
-    <t>33104960</t>
-  </si>
-  <si>
-    <t>MARIA INMACULADA BENAVIDES REALES</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1047365844</t>
-  </si>
-  <si>
-    <t>DEISY RODRIGUEZ NARVAEZ</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>20165505</t>
-  </si>
-  <si>
-    <t>AURY ESTELA MUÑOZ RIOS</t>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
   </si>
   <si>
     <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -359,7 +353,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -372,9 +368,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -574,23 +568,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,10 +612,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -674,7 +668,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D437470-00A1-78A6-1168-F93EC06F1DBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D129D890-58F8-64E1-02AC-C2878C38CEA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,8 +1019,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54C00AD-108B-4C41-8032-9C5708860FDE}">
-  <dimension ref="B2:J79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BDC796-B4F1-4897-8789-778A52B81B5D}">
+  <dimension ref="B2:J78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1050,7 +1044,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1095,7 +1089,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1127,12 +1121,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1795102</v>
+        <v>1755102</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1143,14 +1137,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13" s="5">
         <v>57</v>
@@ -1180,13 +1174,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1203,10 +1197,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1229,7 +1223,7 @@
         <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1237,19 +1231,19 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="18">
-        <v>27578</v>
+        <v>14583</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1260,19 +1254,19 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F19" s="18">
-        <v>29166</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1283,16 +1277,16 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
@@ -1306,16 +1300,16 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1329,16 +1323,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
         <v>31249</v>
@@ -1352,16 +1346,16 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1375,16 +1369,16 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1398,16 +1392,16 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1421,16 +1415,16 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1444,16 +1438,16 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1467,16 +1461,16 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1490,16 +1484,16 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1513,16 +1507,16 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1536,16 +1530,16 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1559,16 +1553,16 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1582,16 +1576,16 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1605,16 +1599,16 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1628,16 +1622,16 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1651,16 +1645,16 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1674,16 +1668,16 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1697,16 +1691,16 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1720,16 +1714,16 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1743,16 +1737,16 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1766,16 +1760,16 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1789,16 +1783,16 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1812,16 +1806,16 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1835,16 +1829,16 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1858,16 +1852,16 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1881,16 +1875,16 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1904,16 +1898,16 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -1927,16 +1921,16 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -1950,16 +1944,16 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -1973,16 +1967,16 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1996,16 +1990,16 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -2019,16 +2013,16 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2042,16 +2036,16 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2065,16 +2059,16 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2088,16 +2082,16 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2111,16 +2105,16 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2134,16 +2128,16 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2157,16 +2151,16 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2180,16 +2174,16 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2203,16 +2197,16 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2226,16 +2220,16 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2249,16 +2243,16 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2272,16 +2266,16 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2295,16 +2289,16 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2318,16 +2312,16 @@
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2341,16 +2335,16 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2364,16 +2358,16 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2387,16 +2381,16 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2410,16 +2404,16 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2433,16 +2427,16 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2456,16 +2450,16 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2478,79 +2472,56 @@
       <c r="J71" s="20"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F72" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G72" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F73" s="24">
-        <v>14583</v>
-      </c>
-      <c r="G73" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="26"/>
+      <c r="B72" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" s="24">
+        <v>29166</v>
+      </c>
+      <c r="G72" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="26"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="32"/>
+      <c r="H77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C78" s="32"/>
       <c r="H78" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" s="32"/>
-      <c r="H79" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B79:C79"/>
     <mergeCell ref="B78:C78"/>
-    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="B77:C77"/>
     <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H77:J77"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
